--- a/initValues.xlsx
+++ b/initValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tallsage\Documents\code_parade\detMir-exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E57C069-DE28-467D-91CA-5AD506FDEF02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D80AB-C49B-4F46-B553-7C7BD337B8BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,20 +58,20 @@
     <t>https://static.detmir.st/media_out/049/142/3142049/1500/0.jpg?1593399642324</t>
   </si>
   <si>
-    <t>Страна-производитель</t>
-  </si>
-  <si>
     <t>https://www.detmir.ru/catalog/index/name/konstruktory/</t>
   </si>
   <si>
     <t>Увлекательный конструктор LEGO Technic 42095 "Скоростной вездеход" с дистанционным управлением понравится ребенку. Радиоуправляемый автомобиль оборудован широкими гусеницами, что позволяет преодолевать любые преграды и проехать по бездорожью. Можно устраивать гонки, выполнять различные трюки и просто играть вместе с друзьями. Набор LEGO Technic достаточно легко и быстро собирается. Все элементы конструктора вездехода комфортно лежат в руке, поэтому отлично разрабатывается ловкость детских пальчиков. При этом ребенок сможет придумывать разные истории с машиной, приключения и сюжетные линии, что прекрасно развивает воображение, ловкость и логическое мышление.</t>
+  </si>
+  <si>
+    <t>Характеристики</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,6 +113,12 @@
       <b/>
       <sz val="30"/>
       <color rgb="FFF72A16"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -145,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -158,8 +165,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,7 +402,7 @@
     <col min="7" max="7" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +429,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -433,19 +442,19 @@
         <v>11</v>
       </c>
       <c r="E2" s="8">
-        <v>4199</v>
+        <v>4599</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="13.2">
       <c r="C3" s="7"/>
     </row>
   </sheetData>

--- a/initValues.xlsx
+++ b/initValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tallsage\Documents\code_parade\detMir-exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D80AB-C49B-4F46-B553-7C7BD337B8BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838B673-96AB-4896-BA7F-A5499239A450}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="8">
-        <v>4599</v>
+        <v>3899</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>

--- a/initValues.xlsx
+++ b/initValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tallsage\Documents\code_parade\detMir-exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838B673-96AB-4896-BA7F-A5499239A450}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E035C588-3338-446B-8F93-E5DDBD0E4942}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="8">
-        <v>3899</v>
+        <v>4499</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
